--- a/_files/student_grades_g5.xlsx
+++ b/_files/student_grades_g5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\Planeación mayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="60">
   <si>
     <t>0001028820</t>
   </si>
@@ -207,6 +206,12 @@
   </si>
   <si>
     <t>Juan al graficar las fracciones puedes hacerlo de más ordenada y estética</t>
+  </si>
+  <si>
+    <t>Anto hiciste un excelente trabajo, ¡Felicitaciones!</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;Guía #5 - &lt;/span&gt;  Comparación de fracciones</t>
   </si>
 </sst>
 </file>
@@ -256,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +313,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,9 +454,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -462,6 +470,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -786,11 +800,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,9 +814,11 @@
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="14" width="12.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -848,14 +864,20 @@
       <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="14">
         <f ca="1">TODAY()</f>
-        <v>43959</v>
+        <v>43967</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>37</v>
@@ -878,26 +900,32 @@
       <c r="I2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>41</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>42</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="20" t="s">
         <v>43</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>36</v>
       </c>
+      <c r="P2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="O3" s="12" t="s">
         <v>55</v>
       </c>
+      <c r="P3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -956,7 +990,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="12"/>
@@ -972,12 +1006,14 @@
       <c r="K4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="19"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="22"/>
+      <c r="N4" s="21"/>
       <c r="O4" s="12"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1021,8 +1057,14 @@
       <c r="O5" s="12" t="s">
         <v>55</v>
       </c>
+      <c r="P5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1032,10 +1074,18 @@
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1060,8 +1110,14 @@
       <c r="O6" s="12" t="s">
         <v>44</v>
       </c>
+      <c r="P6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1105,8 +1161,14 @@
       <c r="O7" s="12" t="s">
         <v>56</v>
       </c>
+      <c r="P7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1150,8 +1212,14 @@
       <c r="O8" s="12" t="s">
         <v>50</v>
       </c>
+      <c r="P8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1195,8 +1263,14 @@
       <c r="O9" s="12" t="s">
         <v>55</v>
       </c>
+      <c r="P9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1240,8 +1314,14 @@
       <c r="O10" s="12" t="s">
         <v>53</v>
       </c>
+      <c r="P10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1285,8 +1365,14 @@
       <c r="O11" s="12" t="s">
         <v>55</v>
       </c>
+      <c r="P11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1329,6 +1415,12 @@
       </c>
       <c r="O12" s="12" t="s">
         <v>52</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/_files/student_grades_g5.xlsx
+++ b/_files/student_grades_g5.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="71">
   <si>
     <t>0001028820</t>
   </si>
@@ -212,6 +212,39 @@
   </si>
   <si>
     <t>&lt;span&gt;Guía #5 - &lt;/span&gt;  Comparación de fracciones</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;Guía #6 - &lt;/span&gt;  Suma y resta de fracciones con igual denominador</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;Guía #7 - &lt;/span&gt;  Taller de fin de periodo 2</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan recuerda cuidar el orden cuando colorees las gráficas. </t>
+  </si>
+  <si>
+    <t>¡Emi, excelente trabajo!</t>
+  </si>
+  <si>
+    <t>María recuerda cuidar el orden cuando colorees las gráficas.</t>
+  </si>
+  <si>
+    <t>¡Emma, excelente trabajo!</t>
+  </si>
+  <si>
+    <t>¡Juan, excelente trabajo!</t>
+  </si>
+  <si>
+    <t>¡Simón, excelente trabajo!</t>
+  </si>
+  <si>
+    <t>¡Juan Ma, excelente trabajo!</t>
+  </si>
+  <si>
+    <t>María te faltan algunos puntos del taller.</t>
   </si>
 </sst>
 </file>
@@ -261,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +352,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,6 +522,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,11 +863,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,9 +879,13 @@
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" customWidth="1"/>
     <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -870,14 +937,26 @@
       <c r="Q1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="14">
         <f ca="1">TODAY()</f>
-        <v>43967</v>
+        <v>43975</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>37</v>
@@ -924,8 +1003,20 @@
       <c r="Q2" s="11" t="s">
         <v>36</v>
       </c>
+      <c r="R2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -975,8 +1066,20 @@
       <c r="Q3" s="12" t="s">
         <v>58</v>
       </c>
+      <c r="R3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1012,8 +1115,12 @@
       <c r="O4" s="12"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="12"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1063,8 +1170,16 @@
       <c r="Q5" s="12" t="s">
         <v>54</v>
       </c>
+      <c r="R5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="28"/>
+      <c r="U5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1116,8 +1231,16 @@
       <c r="Q6" s="12" t="s">
         <v>56</v>
       </c>
+      <c r="R6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" s="28"/>
+      <c r="U6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1167,8 +1290,20 @@
       <c r="Q7" s="12" t="s">
         <v>52</v>
       </c>
+      <c r="R7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1218,8 +1353,20 @@
       <c r="Q8" s="12" t="s">
         <v>56</v>
       </c>
+      <c r="R8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1269,8 +1416,16 @@
       <c r="Q9" s="12" t="s">
         <v>51</v>
       </c>
+      <c r="R9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="T9" s="29"/>
+      <c r="U9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1320,8 +1475,16 @@
       <c r="Q10" s="12" t="s">
         <v>55</v>
       </c>
+      <c r="R10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" s="29"/>
+      <c r="U10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1371,8 +1534,20 @@
       <c r="Q11" s="12" t="s">
         <v>51</v>
       </c>
+      <c r="R11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1422,6 +1597,14 @@
       <c r="Q12" s="12" t="s">
         <v>55</v>
       </c>
+      <c r="R12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="T12" s="29"/>
+      <c r="U12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_files/student_grades_g5.xlsx
+++ b/_files/student_grades_g5.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="72">
   <si>
     <t>0001028820</t>
   </si>
@@ -244,7 +244,10 @@
     <t>¡Juan Ma, excelente trabajo!</t>
   </si>
   <si>
-    <t>María te faltan algunos puntos del taller.</t>
+    <t>Con pequeñas correcciones</t>
+  </si>
+  <si>
+    <t>Emi tiens dos errores en el taller son pequeños pero es importante revisarlos: los tipos de fracciones son propias, impropias, mixtas y unitarias y en el punto 12 en el numeral b está mal hecha la multiplicación y ahí se te dañó todo el ejercicio.</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,9 +509,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -520,25 +520,13 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -865,9 +853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +944,7 @@
       </c>
       <c r="B2" s="14">
         <f ca="1">TODAY()</f>
-        <v>43975</v>
+        <v>43981</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>37</v>
@@ -985,31 +973,31 @@
       <c r="K2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>42</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="19" t="s">
         <v>43</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="21" t="s">
         <v>59</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="22" t="s">
         <v>60</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="23" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="11" t="s">
@@ -1109,16 +1097,32 @@
       <c r="K4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="21"/>
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="20"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="12"/>
+      <c r="P4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1176,8 +1180,12 @@
       <c r="S5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="28"/>
-      <c r="U5" s="12"/>
+      <c r="T5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1237,8 +1245,12 @@
       <c r="S6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="T6" s="28"/>
-      <c r="U6" s="12"/>
+      <c r="T6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1360,10 +1372,10 @@
         <v>65</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1422,8 +1434,12 @@
       <c r="S9" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="T9" s="29"/>
-      <c r="U9" s="12"/>
+      <c r="T9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1481,8 +1497,12 @@
       <c r="S10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="T10" s="29"/>
-      <c r="U10" s="12"/>
+      <c r="T10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1603,8 +1623,12 @@
       <c r="S12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="T12" s="29"/>
-      <c r="U12" s="12"/>
+      <c r="T12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_files/student_grades_g5.xlsx
+++ b/_files/student_grades_g5.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="78">
   <si>
     <t>0001028820</t>
   </si>
@@ -247,7 +247,25 @@
     <t>Con pequeñas correcciones</t>
   </si>
   <si>
-    <t>Emi tiens dos errores en el taller son pequeños pero es importante revisarlos: los tipos de fracciones son propias, impropias, mixtas y unitarias y en el punto 12 en el numeral b está mal hecha la multiplicación y ahí se te dañó todo el ejercicio.</t>
+    <t>&lt;span&gt;Examen - &lt;/span&gt;  fin de periodo 2</t>
+  </si>
+  <si>
+    <t>Emi tienes dos errores en el taller son pequeños pero es importante revisarlos: los tipos de fracciones son propias, impropias, mixtas y unitarias y en el punto 12 en el numeral b está mal hecha la multiplicación y ahí se te dañó todo el ejercicio.</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>¡Excelente!</t>
   </si>
 </sst>
 </file>
@@ -257,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,15 +307,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,9 +531,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -526,8 +540,11 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,10 +554,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFD966"/>
       <color rgb="FF0070C0"/>
       <color rgb="FF00B050"/>
       <color rgb="FFFFFF00"/>
-      <color rgb="FFFFD966"/>
     </mruColors>
   </colors>
   <extLst>
@@ -851,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T4" sqref="T4"/>
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,9 +888,11 @@
     <col min="19" max="19" width="13.28515625" customWidth="1"/>
     <col min="20" max="20" width="12.7109375" customWidth="1"/>
     <col min="21" max="21" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -937,14 +956,20 @@
       <c r="U1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="14">
         <f ca="1">TODAY()</f>
-        <v>43981</v>
+        <v>43989</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>37</v>
@@ -985,26 +1010,32 @@
       <c r="O2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="20" t="s">
         <v>59</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="21" t="s">
         <v>60</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="22" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>36</v>
       </c>
+      <c r="V2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1066,8 +1097,14 @@
       <c r="U3" s="12" t="s">
         <v>52</v>
       </c>
+      <c r="V3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1103,8 +1140,12 @@
       <c r="M4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="12"/>
+      <c r="N4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="P4" s="8" t="s">
         <v>30</v>
       </c>
@@ -1123,8 +1164,14 @@
       <c r="U4" s="12" t="s">
         <v>51</v>
       </c>
+      <c r="V4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1184,10 +1231,14 @@
         <v>31</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>71</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W5" s="12"/>
     </row>
-    <row r="6" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1245,14 +1296,18 @@
       <c r="S6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="23" t="s">
         <v>48</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>70</v>
       </c>
+      <c r="V6" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" s="12"/>
     </row>
-    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1314,8 +1369,14 @@
       <c r="U7" s="12" t="s">
         <v>51</v>
       </c>
+      <c r="V7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1377,8 +1438,14 @@
       <c r="U8" s="12" t="s">
         <v>52</v>
       </c>
+      <c r="V8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1440,8 +1507,14 @@
       <c r="U9" s="12" t="s">
         <v>52</v>
       </c>
+      <c r="V9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1503,8 +1576,14 @@
       <c r="U10" s="12" t="s">
         <v>51</v>
       </c>
+      <c r="V10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1566,8 +1645,14 @@
       <c r="U11" s="12" t="s">
         <v>52</v>
       </c>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1628,6 +1713,12 @@
       </c>
       <c r="U12" s="12" t="s">
         <v>56</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
